--- a/data/Subset1_WithDialogActs/Intro Quadratic Equations_Grade 6.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Intro Quadratic Equations_Grade 6.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2535,12 +2535,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2801,12 +2801,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4253,12 +4253,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4405,12 +4405,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4443,12 +4443,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5249,12 +5249,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5363,12 +5363,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
